--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.709000000000003</v>
+        <v>5.867900000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.071</v>
+        <v>-8.059100000000003</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.3644</v>
+        <v>5.293000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.474</v>
+        <v>-8.535300000000001</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.3109</v>
+        <v>-8.399899999999995</v>
       </c>
     </row>
     <row r="20">
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.761699999999996</v>
+        <v>8.739599999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.92950000000001</v>
+        <v>-12.04410000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.123399999999997</v>
+        <v>9.208099999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.38689999999999</v>
+        <v>-13.60209999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.831</v>
+        <v>5.557000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.891300000000001</v>
+        <v>4.766200000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.85779999999999</v>
+        <v>-13.944</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.360500000000005</v>
+        <v>5.224500000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.86640000000001</v>
+        <v>-11.60200000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.418100000000003</v>
+        <v>-6.340800000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.64439999999999</v>
+        <v>-13.84189999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.394100000000004</v>
+        <v>-7.467600000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.248</v>
+        <v>-11.2454</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.48249999999999</v>
+        <v>-13.75249999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.617000000000004</v>
+        <v>-8.610499999999996</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.86219999999999</v>
+        <v>-10.8014</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.903299999999999</v>
+        <v>5.4779</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.935</v>
+        <v>-10.9094</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.61599999999999</v>
+        <v>-13.66349999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.659699999999999</v>
+        <v>-8.686100000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.709299999999999</v>
+        <v>4.546299999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.170699999999998</v>
+        <v>-8.344299999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.668699999999998</v>
+        <v>4.659399999999996</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.84849999999999</v>
+        <v>-8.178599999999987</v>
       </c>
     </row>
     <row r="65">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.691499999999993</v>
+        <v>5.672699999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.3947</v>
+        <v>-11.3343</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.276400000000002</v>
+        <v>9.429600000000006</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.676100000000003</v>
+        <v>-7.991500000000002</v>
       </c>
     </row>
     <row r="81">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.837800000000002</v>
+        <v>5.762399999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.3962</v>
+        <v>-13.515</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.7729</v>
+        <v>-12.7003</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.08459999999999</v>
+        <v>-13.32569999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.755900000000004</v>
+        <v>5.761600000000003</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.156599999999998</v>
+        <v>-7.161000000000004</v>
       </c>
     </row>
     <row r="93">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.901399999999999</v>
+        <v>8.605900000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.072800000000001</v>
+        <v>-6.436900000000004</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.543499999999993</v>
+        <v>-8.559799999999997</v>
       </c>
     </row>
     <row r="97">
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.54240000000001</v>
+        <v>-12.3561</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.349100000000004</v>
+        <v>-8.226000000000004</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.315599999999998</v>
+        <v>5.653400000000008</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
